--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H2">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I2">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J2">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0057055</v>
+        <v>0.5414285</v>
       </c>
       <c r="N2">
-        <v>0.011411</v>
+        <v>1.082857</v>
       </c>
       <c r="O2">
-        <v>0.000334938228146736</v>
+        <v>0.02133583372323933</v>
       </c>
       <c r="P2">
-        <v>0.000321009433024368</v>
+        <v>0.02079527763873487</v>
       </c>
       <c r="Q2">
-        <v>2.6546195118515</v>
+        <v>128.6971066886305</v>
       </c>
       <c r="R2">
-        <v>10.618478047406</v>
+        <v>514.788426754522</v>
       </c>
       <c r="S2">
-        <v>0.0001862520095235255</v>
+        <v>0.01340141063873845</v>
       </c>
       <c r="T2">
-        <v>0.0001514930870271713</v>
+        <v>0.01229145002844769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H3">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I3">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J3">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.947929</v>
       </c>
       <c r="O3">
-        <v>0.07725366424848043</v>
+        <v>0.05185809803458477</v>
       </c>
       <c r="P3">
-        <v>0.1110614713794111</v>
+        <v>0.0758163632437274</v>
       </c>
       <c r="Q3">
-        <v>612.2892737887056</v>
+        <v>312.8064861209057</v>
       </c>
       <c r="R3">
-        <v>3673.735642732234</v>
+        <v>1876.838916725434</v>
       </c>
       <c r="S3">
-        <v>0.04295911604044065</v>
+        <v>0.03257297913549315</v>
       </c>
       <c r="T3">
-        <v>0.05241293064359769</v>
+        <v>0.04481272413565177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H4">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I4">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J4">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.003021333333333334</v>
+        <v>23.5157765</v>
       </c>
       <c r="N4">
-        <v>0.009064000000000001</v>
+        <v>47.031553</v>
       </c>
       <c r="O4">
-        <v>0.000177365705601146</v>
+        <v>0.9266758164316415</v>
       </c>
       <c r="P4">
-        <v>0.000254984620185161</v>
+        <v>0.9031979314128034</v>
       </c>
       <c r="Q4">
-        <v>1.405747159490667</v>
+        <v>5589.680626502834</v>
       </c>
       <c r="R4">
-        <v>8.434482956944001</v>
+        <v>22358.72250601134</v>
       </c>
       <c r="S4">
-        <v>9.862928836626853E-05</v>
+        <v>0.5820613014743325</v>
       </c>
       <c r="T4">
-        <v>0.0001203341811247288</v>
+        <v>0.533852561750803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,113 +729,113 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H5">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I5">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J5">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.5505055</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N5">
-        <v>31.101011</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O5">
-        <v>0.9128838417239634</v>
+        <v>0.0001302518105343188</v>
       </c>
       <c r="P5">
-        <v>0.8749205071943416</v>
+        <v>0.0001904277047345078</v>
       </c>
       <c r="Q5">
-        <v>7235.242366042252</v>
+        <v>0.7856749998226666</v>
       </c>
       <c r="R5">
-        <v>28940.96946416901</v>
+        <v>4.714049998936</v>
       </c>
       <c r="S5">
-        <v>0.5076352464256657</v>
+        <v>8.181344221427235E-05</v>
       </c>
       <c r="T5">
-        <v>0.4128987964294112</v>
+        <v>0.0001125559685924248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>46.00982733333333</v>
+      </c>
+      <c r="H6">
+        <v>138.029482</v>
+      </c>
+      <c r="I6">
+        <v>0.1215804732137916</v>
+      </c>
+      <c r="J6">
+        <v>0.1716139504296584</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>465.273773</v>
-      </c>
-      <c r="H6">
-        <v>930.547546</v>
-      </c>
-      <c r="I6">
-        <v>0.5560786851775209</v>
-      </c>
-      <c r="J6">
-        <v>0.4719272128544315</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1436843333333333</v>
+        <v>0.5414285</v>
       </c>
       <c r="N6">
-        <v>0.431053</v>
+        <v>1.082857</v>
       </c>
       <c r="O6">
-        <v>0.008434909476664915</v>
+        <v>0.02133583372323933</v>
       </c>
       <c r="P6">
-        <v>0.01212620095815028</v>
+        <v>0.02079527763873487</v>
       </c>
       <c r="Q6">
-        <v>66.85255189098967</v>
+        <v>24.91103179834566</v>
       </c>
       <c r="R6">
-        <v>401.115311345938</v>
+        <v>149.466190790074</v>
       </c>
       <c r="S6">
-        <v>0.004690473371375237</v>
+        <v>0.00259402076048221</v>
       </c>
       <c r="T6">
-        <v>0.0057226842206926</v>
+        <v>0.003568759745864829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>465.273773</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H7">
-        <v>930.547546</v>
+        <v>138.029482</v>
       </c>
       <c r="I7">
-        <v>0.5560786851775209</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J7">
-        <v>0.4719272128544315</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01559133333333333</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N7">
-        <v>0.046774</v>
+        <v>3.947929</v>
       </c>
       <c r="O7">
-        <v>0.0009152806171434249</v>
+        <v>0.05185809803458477</v>
       </c>
       <c r="P7">
-        <v>0.001315826414887546</v>
+        <v>0.0758163632437274</v>
       </c>
       <c r="Q7">
-        <v>7.254238486100667</v>
+        <v>60.54784387141978</v>
       </c>
       <c r="R7">
-        <v>43.525430916604</v>
+        <v>544.9305948427781</v>
       </c>
       <c r="S7">
-        <v>0.0005089680421495856</v>
+        <v>0.00630493209901201</v>
       </c>
       <c r="T7">
-        <v>0.0006209742925781185</v>
+        <v>0.01301114560346601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>138.029482</v>
       </c>
       <c r="I8">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J8">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0057055</v>
+        <v>23.5157765</v>
       </c>
       <c r="N8">
-        <v>0.011411</v>
+        <v>47.031553</v>
       </c>
       <c r="O8">
-        <v>0.000334938228146736</v>
+        <v>0.9266758164316415</v>
       </c>
       <c r="P8">
-        <v>0.000321009433024368</v>
+        <v>0.9031979314128034</v>
       </c>
       <c r="Q8">
-        <v>0.2625090698503333</v>
+        <v>1081.956816374258</v>
       </c>
       <c r="R8">
-        <v>1.575054419102</v>
+        <v>6491.740898245546</v>
       </c>
       <c r="S8">
-        <v>1.841802245462858E-05</v>
+        <v>0.1126656842775356</v>
       </c>
       <c r="T8">
-        <v>2.247119173955822E-05</v>
+        <v>0.1550013650296468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>138.029482</v>
       </c>
       <c r="I9">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J9">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.315976333333333</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N9">
-        <v>3.947929</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O9">
-        <v>0.07725366424848043</v>
+        <v>0.0001302518105343188</v>
       </c>
       <c r="P9">
-        <v>0.1110614713794111</v>
+        <v>0.0001904277047345078</v>
       </c>
       <c r="Q9">
-        <v>60.54784387141977</v>
+        <v>0.1520778159457778</v>
       </c>
       <c r="R9">
-        <v>544.930594842778</v>
+        <v>1.368700343512</v>
       </c>
       <c r="S9">
-        <v>0.004248125783383248</v>
+        <v>1.58360767617156E-05</v>
       </c>
       <c r="T9">
-        <v>0.007774486857695411</v>
+        <v>3.268005068074145E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,61 +1039,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.00982733333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H10">
-        <v>138.029482</v>
+        <v>1.273488</v>
       </c>
       <c r="I10">
-        <v>0.05498931118295542</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J10">
-        <v>0.07000165548983235</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.003021333333333334</v>
+        <v>0.5414285</v>
       </c>
       <c r="N10">
-        <v>0.009064000000000001</v>
+        <v>1.082857</v>
       </c>
       <c r="O10">
-        <v>0.000177365705601146</v>
+        <v>0.02133583372323933</v>
       </c>
       <c r="P10">
-        <v>0.000254984620185161</v>
+        <v>0.02079527763873487</v>
       </c>
       <c r="Q10">
-        <v>0.1390110249831111</v>
+        <v>0.229834232536</v>
       </c>
       <c r="R10">
-        <v>1.251099224848</v>
+        <v>1.379005395216</v>
       </c>
       <c r="S10">
-        <v>9.753217978485877E-06</v>
+        <v>2.3932961729328E-05</v>
       </c>
       <c r="T10">
-        <v>1.784934553740739E-05</v>
+        <v>3.292610133277114E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.00982733333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H11">
-        <v>138.029482</v>
+        <v>1.273488</v>
       </c>
       <c r="I11">
-        <v>0.05498931118295542</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J11">
-        <v>0.07000165548983235</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.5505055</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N11">
-        <v>31.101011</v>
+        <v>3.947929</v>
       </c>
       <c r="O11">
-        <v>0.9128838417239634</v>
+        <v>0.05185809803458477</v>
       </c>
       <c r="P11">
-        <v>0.8749205071943416</v>
+        <v>0.0758163632437274</v>
       </c>
       <c r="Q11">
-        <v>715.4760730010503</v>
+        <v>0.5586266895946667</v>
       </c>
       <c r="R11">
-        <v>4292.856438006302</v>
+        <v>5.027640206352</v>
       </c>
       <c r="S11">
-        <v>0.05019885364645085</v>
+        <v>5.817058249125797E-05</v>
       </c>
       <c r="T11">
-        <v>0.06124588392560768</v>
+        <v>0.0001200434686284392</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.00982733333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H12">
-        <v>138.029482</v>
+        <v>1.273488</v>
       </c>
       <c r="I12">
-        <v>0.05498931118295542</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J12">
-        <v>0.07000165548983235</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1436843333333333</v>
+        <v>23.5157765</v>
       </c>
       <c r="N12">
-        <v>0.431053</v>
+        <v>47.031553</v>
       </c>
       <c r="O12">
-        <v>0.008434909476664915</v>
+        <v>0.9266758164316415</v>
       </c>
       <c r="P12">
-        <v>0.01212620095815028</v>
+        <v>0.9031979314128034</v>
       </c>
       <c r="Q12">
-        <v>6.610891367171778</v>
+        <v>9.982353061144</v>
       </c>
       <c r="R12">
-        <v>59.498022304546</v>
+        <v>59.894118366864</v>
       </c>
       <c r="S12">
-        <v>0.0004638298620123867</v>
+        <v>0.00103947645720521</v>
       </c>
       <c r="T12">
-        <v>0.0008488541418729111</v>
+        <v>0.001430074035551875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.00982733333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H13">
-        <v>138.029482</v>
+        <v>1.273488</v>
       </c>
       <c r="I13">
-        <v>0.05498931118295542</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J13">
-        <v>0.07000165548983235</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,33 +1243,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01559133333333333</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N13">
-        <v>0.046774</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O13">
-        <v>0.0009152806171434249</v>
+        <v>0.0001302518105343188</v>
       </c>
       <c r="P13">
-        <v>0.001315826414887546</v>
+        <v>0.0001904277047345078</v>
       </c>
       <c r="Q13">
-        <v>0.7173545545631111</v>
+        <v>0.001403100778666667</v>
       </c>
       <c r="R13">
-        <v>6.456190991068</v>
+        <v>0.012627907008</v>
       </c>
       <c r="S13">
-        <v>5.033065067582727E-05</v>
+        <v>1.461068565273879E-07</v>
       </c>
       <c r="T13">
-        <v>9.211002737937921E-05</v>
+        <v>3.015127766785075E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4389783333333333</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H14">
-        <v>1.316935</v>
+        <v>186.583565</v>
       </c>
       <c r="I14">
-        <v>0.0005246513098029694</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J14">
-        <v>0.0006678836204898773</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0057055</v>
+        <v>0.5414285</v>
       </c>
       <c r="N14">
-        <v>0.011411</v>
+        <v>1.082857</v>
       </c>
       <c r="O14">
-        <v>0.000334938228146736</v>
+        <v>0.02133583372323933</v>
       </c>
       <c r="P14">
-        <v>0.000321009433024368</v>
+        <v>0.02079527763873487</v>
       </c>
       <c r="Q14">
-        <v>0.002504590880833333</v>
+        <v>50.51082986130125</v>
       </c>
       <c r="R14">
-        <v>0.015027545285</v>
+        <v>202.043319445205</v>
       </c>
       <c r="S14">
-        <v>1.757257801002708E-07</v>
+        <v>0.005259763720349054</v>
       </c>
       <c r="T14">
-        <v>2.143969423397177E-07</v>
+        <v>0.004824128196119391</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4389783333333333</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H15">
-        <v>1.316935</v>
+        <v>186.583565</v>
       </c>
       <c r="I15">
-        <v>0.0005246513098029694</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J15">
-        <v>0.0006678836204898773</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>3.947929</v>
       </c>
       <c r="O15">
-        <v>0.07725366424848043</v>
+        <v>0.05185809803458477</v>
       </c>
       <c r="P15">
-        <v>0.1110614713794111</v>
+        <v>0.0758163632437274</v>
       </c>
       <c r="Q15">
-        <v>0.5776850975127776</v>
+        <v>122.7697778644809</v>
       </c>
       <c r="R15">
-        <v>5.199165877615</v>
+        <v>736.6186671868851</v>
       </c>
       <c r="S15">
-        <v>4.053123613504409E-05</v>
+        <v>0.01278418955578556</v>
       </c>
       <c r="T15">
-        <v>7.417613760181398E-05</v>
+        <v>0.01758802464700088</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4389783333333333</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H16">
-        <v>1.316935</v>
+        <v>186.583565</v>
       </c>
       <c r="I16">
-        <v>0.0005246513098029694</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J16">
-        <v>0.0006678836204898773</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.003021333333333334</v>
+        <v>23.5157765</v>
       </c>
       <c r="N16">
-        <v>0.009064000000000001</v>
+        <v>47.031553</v>
       </c>
       <c r="O16">
-        <v>0.000177365705601146</v>
+        <v>0.9266758164316415</v>
       </c>
       <c r="P16">
-        <v>0.000254984620185161</v>
+        <v>0.9031979314128034</v>
       </c>
       <c r="Q16">
-        <v>0.001326299871111111</v>
+        <v>2193.828706556611</v>
       </c>
       <c r="R16">
-        <v>0.01193669884</v>
+        <v>8775.314826226446</v>
       </c>
       <c r="S16">
-        <v>9.305514975776913E-08</v>
+        <v>0.2284464672445889</v>
       </c>
       <c r="T16">
-        <v>1.703000512985016E-07</v>
+        <v>0.2095255799561563</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4389783333333333</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H17">
-        <v>1.316935</v>
+        <v>186.583565</v>
       </c>
       <c r="I17">
-        <v>0.0005246513098029694</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J17">
-        <v>0.0006678836204898773</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>15.5505055</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N17">
-        <v>31.101011</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O17">
-        <v>0.9128838417239634</v>
+        <v>0.0001302518105343188</v>
       </c>
       <c r="P17">
-        <v>0.8749205071943416</v>
+        <v>0.0001904277047345078</v>
       </c>
       <c r="Q17">
-        <v>6.826334986880833</v>
+        <v>0.3083604384233334</v>
       </c>
       <c r="R17">
-        <v>40.958009921285</v>
+        <v>1.85016263054</v>
       </c>
       <c r="S17">
-        <v>0.000478945703258444</v>
+        <v>3.21100059385996E-05</v>
       </c>
       <c r="T17">
-        <v>0.0005843450759857967</v>
+        <v>4.417578239113741E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4389783333333333</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H18">
-        <v>1.316935</v>
+        <v>2.238789</v>
       </c>
       <c r="I18">
-        <v>0.0005246513098029694</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J18">
-        <v>0.0006678836204898773</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1436843333333333</v>
+        <v>0.5414285</v>
       </c>
       <c r="N18">
-        <v>0.431053</v>
+        <v>1.082857</v>
       </c>
       <c r="O18">
-        <v>0.008434909476664915</v>
+        <v>0.02133583372323933</v>
       </c>
       <c r="P18">
-        <v>0.01212620095815028</v>
+        <v>0.02079527763873487</v>
       </c>
       <c r="Q18">
-        <v>0.06307430917277777</v>
+        <v>0.4040480566954999</v>
       </c>
       <c r="R18">
-        <v>0.567668782555</v>
+        <v>2.424288340173</v>
       </c>
       <c r="S18">
-        <v>4.425386305001727E-06</v>
+        <v>4.207409214459854E-05</v>
       </c>
       <c r="T18">
-        <v>8.098890998717231E-06</v>
+        <v>5.788401105993409E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,113 +1597,113 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4389783333333333</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H19">
-        <v>1.316935</v>
+        <v>2.238789</v>
       </c>
       <c r="I19">
-        <v>0.0005246513098029694</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J19">
-        <v>0.0006678836204898773</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.01559133333333333</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N19">
-        <v>0.046774</v>
+        <v>3.947929</v>
       </c>
       <c r="O19">
-        <v>0.0009152806171434249</v>
+        <v>0.05185809803458477</v>
       </c>
       <c r="P19">
-        <v>0.001315826414887546</v>
+        <v>0.0758163632437274</v>
       </c>
       <c r="Q19">
-        <v>0.006844257521111111</v>
+        <v>0.9820644464423333</v>
       </c>
       <c r="R19">
-        <v>0.06159831769</v>
+        <v>8.838580017981</v>
       </c>
       <c r="S19">
-        <v>4.802031746215681E-07</v>
+        <v>0.0001022637513702688</v>
       </c>
       <c r="T19">
-        <v>8.788189099113098E-07</v>
+        <v>0.0002110361441075179</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7462629999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.238789</v>
+      </c>
+      <c r="I20">
+        <v>0.001971991940430749</v>
+      </c>
+      <c r="J20">
+        <v>0.002783517107370325</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>73.03788350000001</v>
-      </c>
-      <c r="H20">
-        <v>146.075767</v>
-      </c>
-      <c r="I20">
-        <v>0.08729228377295394</v>
-      </c>
-      <c r="J20">
-        <v>0.07408232914289298</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0057055</v>
+        <v>23.5157765</v>
       </c>
       <c r="N20">
-        <v>0.011411</v>
+        <v>47.031553</v>
       </c>
       <c r="O20">
-        <v>0.000334938228146736</v>
+        <v>0.9266758164316415</v>
       </c>
       <c r="P20">
-        <v>0.000321009433024368</v>
+        <v>0.9031979314128034</v>
       </c>
       <c r="Q20">
-        <v>0.41671764430925</v>
+        <v>17.5489539182195</v>
       </c>
       <c r="R20">
-        <v>1.666870577237</v>
+        <v>105.293723509317</v>
       </c>
       <c r="S20">
-        <v>2.923752285779527E-05</v>
+        <v>0.001827397241395282</v>
       </c>
       <c r="T20">
-        <v>2.378112647528469E-05</v>
+        <v>0.002514066893429028</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>73.03788350000001</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H21">
-        <v>146.075767</v>
+        <v>2.238789</v>
       </c>
       <c r="I21">
-        <v>0.08729228377295394</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J21">
-        <v>0.07408232914289298</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.315976333333333</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N21">
-        <v>3.947929</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O21">
-        <v>0.07725366424848043</v>
+        <v>0.0001302518105343188</v>
       </c>
       <c r="P21">
-        <v>0.1110614713794111</v>
+        <v>0.0001904277047345078</v>
       </c>
       <c r="Q21">
-        <v>96.11612612275717</v>
+        <v>0.002466647969333333</v>
       </c>
       <c r="R21">
-        <v>576.6967567365431</v>
+        <v>0.022199831724</v>
       </c>
       <c r="S21">
-        <v>0.00674364878207886</v>
+        <v>2.568555206001895E-07</v>
       </c>
       <c r="T21">
-        <v>0.00822769247782352</v>
+        <v>5.300587738457678E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.259518</v>
+      </c>
+      <c r="H22">
+        <v>0.778554</v>
+      </c>
+      <c r="I22">
+        <v>0.0006857735200548696</v>
+      </c>
+      <c r="J22">
+        <v>0.0009679868795190599</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>73.03788350000001</v>
-      </c>
-      <c r="H22">
-        <v>146.075767</v>
-      </c>
-      <c r="I22">
-        <v>0.08729228377295394</v>
-      </c>
-      <c r="J22">
-        <v>0.07408232914289298</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.003021333333333334</v>
+        <v>0.5414285</v>
       </c>
       <c r="N22">
-        <v>0.009064000000000001</v>
+        <v>1.082857</v>
       </c>
       <c r="O22">
-        <v>0.000177365705601146</v>
+        <v>0.02133583372323933</v>
       </c>
       <c r="P22">
-        <v>0.000254984620185161</v>
+        <v>0.02079527763873487</v>
       </c>
       <c r="Q22">
-        <v>0.2206717920146667</v>
+        <v>0.140510441463</v>
       </c>
       <c r="R22">
-        <v>1.324030752088</v>
+        <v>0.843062648778</v>
       </c>
       <c r="S22">
-        <v>1.548265750492544E-05</v>
+        <v>1.463154979569123E-05</v>
       </c>
       <c r="T22">
-        <v>1.888985455893265E-05</v>
+        <v>2.012955591025145E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>73.03788350000001</v>
+        <v>0.259518</v>
       </c>
       <c r="H23">
-        <v>146.075767</v>
+        <v>0.778554</v>
       </c>
       <c r="I23">
-        <v>0.08729228377295394</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J23">
-        <v>0.07408232914289298</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.5505055</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N23">
-        <v>31.101011</v>
+        <v>3.947929</v>
       </c>
       <c r="O23">
-        <v>0.9128838417239634</v>
+        <v>0.05185809803458477</v>
       </c>
       <c r="P23">
-        <v>0.8749205071943416</v>
+        <v>0.0758163632437274</v>
       </c>
       <c r="Q23">
-        <v>1135.776009075109</v>
+        <v>0.341519546074</v>
       </c>
       <c r="R23">
-        <v>4543.104036300438</v>
+        <v>3.073675914666</v>
       </c>
       <c r="S23">
-        <v>0.07968771536351259</v>
+        <v>3.556291043252771E-05</v>
       </c>
       <c r="T23">
-        <v>0.06481614898783808</v>
+        <v>7.338924487277924E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.259518</v>
+      </c>
+      <c r="H24">
+        <v>0.778554</v>
+      </c>
+      <c r="I24">
+        <v>0.0006857735200548696</v>
+      </c>
+      <c r="J24">
+        <v>0.0009679868795190599</v>
+      </c>
+      <c r="K24">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>73.03788350000001</v>
-      </c>
-      <c r="H24">
-        <v>146.075767</v>
-      </c>
-      <c r="I24">
-        <v>0.08729228377295394</v>
-      </c>
-      <c r="J24">
-        <v>0.07408232914289298</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1436843333333333</v>
+        <v>23.5157765</v>
       </c>
       <c r="N24">
-        <v>0.431053</v>
+        <v>47.031553</v>
       </c>
       <c r="O24">
-        <v>0.008434909476664915</v>
+        <v>0.9266758164316415</v>
       </c>
       <c r="P24">
-        <v>0.01212620095815028</v>
+        <v>0.9031979314128034</v>
       </c>
       <c r="Q24">
-        <v>10.49439959877517</v>
+        <v>6.102767285726999</v>
       </c>
       <c r="R24">
-        <v>62.966397592651</v>
+        <v>36.616603714362</v>
       </c>
       <c r="S24">
-        <v>0.0007363025116362121</v>
+        <v>0.0006354897365840469</v>
       </c>
       <c r="T24">
-        <v>0.0008983372106345534</v>
+        <v>0.0008742837472163495</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>73.03788350000001</v>
+        <v>0.259518</v>
       </c>
       <c r="H25">
-        <v>146.075767</v>
+        <v>0.778554</v>
       </c>
       <c r="I25">
-        <v>0.08729228377295394</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J25">
-        <v>0.07408232914289298</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,772 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.01559133333333333</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N25">
-        <v>0.046774</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O25">
-        <v>0.0009152806171434249</v>
+        <v>0.0001302518105343188</v>
       </c>
       <c r="P25">
-        <v>0.001315826414887546</v>
+        <v>0.0001904277047345078</v>
       </c>
       <c r="Q25">
-        <v>1.138757987609667</v>
+        <v>0.0008577934959999999</v>
       </c>
       <c r="R25">
-        <v>6.832547925658001</v>
+        <v>0.007720141464</v>
       </c>
       <c r="S25">
-        <v>7.989693536356825E-05</v>
+        <v>8.932324260363973E-08</v>
       </c>
       <c r="T25">
-        <v>9.747948556261204E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>251.0450083333334</v>
-      </c>
-      <c r="H26">
-        <v>753.135025</v>
-      </c>
-      <c r="I26">
-        <v>0.3000400758767458</v>
-      </c>
-      <c r="J26">
-        <v>0.381952448081898</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.5</v>
-      </c>
-      <c r="M26">
-        <v>0.0057055</v>
-      </c>
-      <c r="N26">
-        <v>0.011411</v>
-      </c>
-      <c r="O26">
-        <v>0.000334938228146736</v>
-      </c>
-      <c r="P26">
-        <v>0.000321009433024368</v>
-      </c>
-      <c r="Q26">
-        <v>1.432337295045833</v>
-      </c>
-      <c r="R26">
-        <v>8.594023770274999</v>
-      </c>
-      <c r="S26">
-        <v>0.0001004948913871695</v>
-      </c>
-      <c r="T26">
-        <v>0.0001226103388010394</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>251.0450083333334</v>
-      </c>
-      <c r="H27">
-        <v>753.135025</v>
-      </c>
-      <c r="I27">
-        <v>0.3000400758767458</v>
-      </c>
-      <c r="J27">
-        <v>0.381952448081898</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.315976333333333</v>
-      </c>
-      <c r="N27">
-        <v>3.947929</v>
-      </c>
-      <c r="O27">
-        <v>0.07725366424848043</v>
-      </c>
-      <c r="P27">
-        <v>0.1110614713794111</v>
-      </c>
-      <c r="Q27">
-        <v>330.3692895681361</v>
-      </c>
-      <c r="R27">
-        <v>2973.323606113225</v>
-      </c>
-      <c r="S27">
-        <v>0.02317919528287071</v>
-      </c>
-      <c r="T27">
-        <v>0.04242020088094372</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>251.0450083333334</v>
-      </c>
-      <c r="H28">
-        <v>753.135025</v>
-      </c>
-      <c r="I28">
-        <v>0.3000400758767458</v>
-      </c>
-      <c r="J28">
-        <v>0.381952448081898</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M28">
-        <v>0.003021333333333334</v>
-      </c>
-      <c r="N28">
-        <v>0.009064000000000001</v>
-      </c>
-      <c r="O28">
-        <v>0.000177365705601146</v>
-      </c>
-      <c r="P28">
-        <v>0.000254984620185161</v>
-      </c>
-      <c r="Q28">
-        <v>0.7584906518444446</v>
-      </c>
-      <c r="R28">
-        <v>6.826415866600001</v>
-      </c>
-      <c r="S28">
-        <v>5.321681976650041E-05</v>
-      </c>
-      <c r="T28">
-        <v>9.739199990295517E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>251.0450083333334</v>
-      </c>
-      <c r="H29">
-        <v>753.135025</v>
-      </c>
-      <c r="I29">
-        <v>0.3000400758767458</v>
-      </c>
-      <c r="J29">
-        <v>0.381952448081898</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>15.5505055</v>
-      </c>
-      <c r="N29">
-        <v>31.101011</v>
-      </c>
-      <c r="O29">
-        <v>0.9128838417239634</v>
-      </c>
-      <c r="P29">
-        <v>0.8749205071943416</v>
-      </c>
-      <c r="Q29">
-        <v>3903.876782835046</v>
-      </c>
-      <c r="R29">
-        <v>23423.26069701028</v>
-      </c>
-      <c r="S29">
-        <v>0.2739017371375132</v>
-      </c>
-      <c r="T29">
-        <v>0.3341780295999346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>251.0450083333334</v>
-      </c>
-      <c r="H30">
-        <v>753.135025</v>
-      </c>
-      <c r="I30">
-        <v>0.3000400758767458</v>
-      </c>
-      <c r="J30">
-        <v>0.381952448081898</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.1436843333333333</v>
-      </c>
-      <c r="N30">
-        <v>0.431053</v>
-      </c>
-      <c r="O30">
-        <v>0.008434909476664915</v>
-      </c>
-      <c r="P30">
-        <v>0.01212620095815028</v>
-      </c>
-      <c r="Q30">
-        <v>36.07123465903612</v>
-      </c>
-      <c r="R30">
-        <v>324.641111931325</v>
-      </c>
-      <c r="S30">
-        <v>0.002530810879392023</v>
-      </c>
-      <c r="T30">
-        <v>0.004631632141898558</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>251.0450083333334</v>
-      </c>
-      <c r="H31">
-        <v>753.135025</v>
-      </c>
-      <c r="I31">
-        <v>0.3000400758767458</v>
-      </c>
-      <c r="J31">
-        <v>0.381952448081898</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.01559133333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.046774</v>
-      </c>
-      <c r="O31">
-        <v>0.0009152806171434249</v>
-      </c>
-      <c r="P31">
-        <v>0.001315826414887546</v>
-      </c>
-      <c r="Q31">
-        <v>3.914126406594445</v>
-      </c>
-      <c r="R31">
-        <v>35.22713765935001</v>
-      </c>
-      <c r="S31">
-        <v>0.000274620865816228</v>
-      </c>
-      <c r="T31">
-        <v>0.0005025831204171254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.8994516666666668</v>
-      </c>
-      <c r="H32">
-        <v>2.698355</v>
-      </c>
-      <c r="I32">
-        <v>0.001074992680020952</v>
-      </c>
-      <c r="J32">
-        <v>0.00136847081045531</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.5</v>
-      </c>
-      <c r="M32">
-        <v>0.0057055</v>
-      </c>
-      <c r="N32">
-        <v>0.011411</v>
-      </c>
-      <c r="O32">
-        <v>0.000334938228146736</v>
-      </c>
-      <c r="P32">
-        <v>0.000321009433024368</v>
-      </c>
-      <c r="Q32">
-        <v>0.005131821484166667</v>
-      </c>
-      <c r="R32">
-        <v>0.030790928905</v>
-      </c>
-      <c r="S32">
-        <v>3.600561435169286E-07</v>
-      </c>
-      <c r="T32">
-        <v>4.392920389746563E-07</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.8994516666666668</v>
-      </c>
-      <c r="H33">
-        <v>2.698355</v>
-      </c>
-      <c r="I33">
-        <v>0.001074992680020952</v>
-      </c>
-      <c r="J33">
-        <v>0.00136847081045531</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.315976333333333</v>
-      </c>
-      <c r="N33">
-        <v>3.947929</v>
-      </c>
-      <c r="O33">
-        <v>0.07725366424848043</v>
-      </c>
-      <c r="P33">
-        <v>0.1110614713794111</v>
-      </c>
-      <c r="Q33">
-        <v>1.183657106310556</v>
-      </c>
-      <c r="R33">
-        <v>10.652913956795</v>
-      </c>
-      <c r="S33">
-        <v>8.304712357191275E-05</v>
-      </c>
-      <c r="T33">
-        <v>0.0001519843817489419</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.8994516666666668</v>
-      </c>
-      <c r="H34">
-        <v>2.698355</v>
-      </c>
-      <c r="I34">
-        <v>0.001074992680020952</v>
-      </c>
-      <c r="J34">
-        <v>0.00136847081045531</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.003021333333333334</v>
-      </c>
-      <c r="N34">
-        <v>0.009064000000000001</v>
-      </c>
-      <c r="O34">
-        <v>0.000177365705601146</v>
-      </c>
-      <c r="P34">
-        <v>0.000254984620185161</v>
-      </c>
-      <c r="Q34">
-        <v>0.002717543302222223</v>
-      </c>
-      <c r="R34">
-        <v>0.02445788972</v>
-      </c>
-      <c r="S34">
-        <v>1.906668352079831E-07</v>
-      </c>
-      <c r="T34">
-        <v>3.489390098384266E-07</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.8994516666666668</v>
-      </c>
-      <c r="H35">
-        <v>2.698355</v>
-      </c>
-      <c r="I35">
-        <v>0.001074992680020952</v>
-      </c>
-      <c r="J35">
-        <v>0.00136847081045531</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>15.5505055</v>
-      </c>
-      <c r="N35">
-        <v>31.101011</v>
-      </c>
-      <c r="O35">
-        <v>0.9128838417239634</v>
-      </c>
-      <c r="P35">
-        <v>0.8749205071943416</v>
-      </c>
-      <c r="Q35">
-        <v>13.98692808948417</v>
-      </c>
-      <c r="R35">
-        <v>83.92156853690501</v>
-      </c>
-      <c r="S35">
-        <v>0.0009813434475626655</v>
-      </c>
-      <c r="T35">
-        <v>0.001197303175564211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.8994516666666668</v>
-      </c>
-      <c r="H36">
-        <v>2.698355</v>
-      </c>
-      <c r="I36">
-        <v>0.001074992680020952</v>
-      </c>
-      <c r="J36">
-        <v>0.00136847081045531</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.1436843333333333</v>
-      </c>
-      <c r="N36">
-        <v>0.431053</v>
-      </c>
-      <c r="O36">
-        <v>0.008434909476664915</v>
-      </c>
-      <c r="P36">
-        <v>0.01212620095815028</v>
-      </c>
-      <c r="Q36">
-        <v>0.1292371130905556</v>
-      </c>
-      <c r="R36">
-        <v>1.163134017815</v>
-      </c>
-      <c r="S36">
-        <v>9.067465944054139E-06</v>
-      </c>
-      <c r="T36">
-        <v>1.659435205294387E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.8994516666666668</v>
-      </c>
-      <c r="H37">
-        <v>2.698355</v>
-      </c>
-      <c r="I37">
-        <v>0.001074992680020952</v>
-      </c>
-      <c r="J37">
-        <v>0.00136847081045531</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.01559133333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.046774</v>
-      </c>
-      <c r="O37">
-        <v>0.0009152806171434249</v>
-      </c>
-      <c r="P37">
-        <v>0.001315826414887546</v>
-      </c>
-      <c r="Q37">
-        <v>0.01402365075222222</v>
-      </c>
-      <c r="R37">
-        <v>0.12621285677</v>
-      </c>
-      <c r="S37">
-        <v>9.839199635942407E-07</v>
-      </c>
-      <c r="T37">
-        <v>1.800670040399665E-06</v>
+        <v>1.843315196799332E-07</v>
       </c>
     </row>
   </sheetData>
